--- a/legislator/property/output/normal/高志鵬_2011-11-18_財產申報表_tmpfef21.xlsx
+++ b/legislator/property/output/normal/高志鵬_2011-11-18_財產申報表_tmpfef21.xlsx
@@ -9,24 +9,14 @@
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
-    <sheet name="船舶" sheetId="3" r:id="rId3"/>
-    <sheet name="汽車" sheetId="4" r:id="rId4"/>
-    <sheet name="航空器" sheetId="5" r:id="rId5"/>
-    <sheet name="現金" sheetId="6" r:id="rId6"/>
-    <sheet name="存款" sheetId="7" r:id="rId7"/>
-    <sheet name="股票" sheetId="8" r:id="rId8"/>
-    <sheet name="債券" sheetId="9" r:id="rId9"/>
-    <sheet name="保險" sheetId="10" r:id="rId10"/>
-    <sheet name="債權" sheetId="11" r:id="rId11"/>
-    <sheet name="債務" sheetId="12" r:id="rId12"/>
-    <sheet name="事業投資" sheetId="13" r:id="rId13"/>
+    <sheet name="保險" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="91">
   <si>
     <t>土地坐落</t>
   </si>
@@ -274,108 +264,6 @@
     <t>22，360，000(超 過五年）</t>
   </si>
   <si>
-    <t>種</t>
-  </si>
-  <si>
-    <t>類</t>
-  </si>
-  <si>
-    <t>總嘲數</t>
-  </si>
-  <si>
-    <t>船籍港</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>型式</t>
-  </si>
-  <si>
-    <t>製造廠名稱</t>
-  </si>
-  <si>
-    <t>國籍標示及编號</t>
-  </si>
-  <si>
-    <t>登'記（取得）原因</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>(-外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>IS；</t>
-  </si>
-  <si>
-    <t>數</t>
-  </si>
-  <si>
-    <t>票面價額</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>代瑪</t>
-  </si>
-  <si>
-    <t>買賣機構</t>
-  </si>
-  <si>
-    <t>單</t>
-  </si>
-  <si>
-    <t>位</t>
-  </si>
-  <si>
-    <t>外</t>
-  </si>
-  <si>
-    <t>幣</t>
-  </si>
-  <si>
-    <t>別</t>
-  </si>
-  <si>
     <t>保險公司</t>
   </si>
   <si>
@@ -385,9 +273,6 @@
     <t>要保人</t>
   </si>
   <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>富邦人壽</t>
   </si>
   <si>
@@ -404,54 +289,6 @@
   </si>
   <si>
     <t>美年發儲蓄型保單</t>
-  </si>
-  <si>
-    <t>種.</t>
-  </si>
-  <si>
-    <t>債權</t>
-  </si>
-  <si>
-    <t>債務人及地</t>
-  </si>
-  <si>
-    <t>址</t>
-  </si>
-  <si>
-    <t>餘</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
-    <t>債務</t>
-  </si>
-  <si>
-    <t>債權人及地</t>
-  </si>
-  <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資</t>
-  </si>
-  <si>
-    <t>事業名</t>
-  </si>
-  <si>
-    <t>投資事業地</t>
-  </si>
-  <si>
-    <t>投</t>
-  </si>
-  <si>
-    <t>資金額</t>
   </si>
 </sst>
 </file>
@@ -1338,228 +1175,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>91</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>92</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>93</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>94</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:11">
-      <c r="B1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:11">
-      <c r="B1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:11">
-      <c r="B1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4"/>
@@ -1676,13 +1291,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>82</v>
       </c>
@@ -1692,254 +1307,61 @@
       <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>91</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>92</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>93</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>94</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:11">
-      <c r="B1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:P1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:16">
-      <c r="B1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>95</v>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/高志鵬_2011-11-18_財產申報表_tmpfef21.xlsx
+++ b/legislator/property/output/normal/高志鵬_2011-11-18_財產申報表_tmpfef21.xlsx
@@ -16,9 +16,249 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="91">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="105">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市北投區桃源段五小段04390000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區桃源段五小段04400000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區桃源段五小段04440000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區桃源段五小段05090000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區桃源段五小段05100000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區桃源段五小段05150000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區桃源段五小段05230000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區桃源段五小段05270000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區豐年段三小段06140000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區豐年段三小段06420000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區豐年段三小段06530000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區豐年段三小段06540000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區豐年段四小段03680000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區豐年段四小段03690000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區豐年段四小段</t>
+  </si>
+  <si>
+    <t>臺北市北投區豐年段四小段03770000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區豐年段四小段03780000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區豐年段四小段03790000地號</t>
+  </si>
+  <si>
+    <t>臺北市中正區臨沂段二小段03920000地號</t>
+  </si>
+  <si>
+    <t>12分之1</t>
+  </si>
+  <si>
+    <t>4320分之94</t>
+  </si>
+  <si>
+    <t>30000分之180</t>
+  </si>
+  <si>
+    <t>15分之1</t>
+  </si>
+  <si>
+    <t>216分之11</t>
+  </si>
+  <si>
+    <t>10000分之354</t>
+  </si>
+  <si>
+    <t>高志鵬</t>
+  </si>
+  <si>
+    <t>局志鹏</t>
+  </si>
+  <si>
+    <t>局志騰</t>
+  </si>
+  <si>
+    <t>高志鵰</t>
+  </si>
+  <si>
+    <t>局志轉</t>
+  </si>
+  <si>
+    <t>局志鹏.</t>
+  </si>
+  <si>
+    <t>82年06月.16曰</t>
+  </si>
+  <si>
+    <t>82年06月16日</t>
+  </si>
+  <si>
+    <t>82年06月16曰</t>
+  </si>
+  <si>
+    <t>82年02月25日</t>
+  </si>
+  <si>
+    <t>92年07月21曰</t>
+  </si>
+  <si>
+    <t>92年07月21日</t>
+  </si>
+  <si>
+    <t>92年07月</t>
+  </si>
+  <si>
+    <t>94年02月17曰</t>
+  </si>
+  <si>
+    <t>分割繼承</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>受贈</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>558507(超過五年）</t>
+  </si>
+  <si>
+    <t>2180694(超過五年）</t>
+  </si>
+  <si>
+    <t>246890(超過五年）</t>
+  </si>
+  <si>
+    <t>178346(超過五年）</t>
+  </si>
+  <si>
+    <t>170795(超過五年）</t>
+  </si>
+  <si>
+    <t>1053768(超過五年）</t>
+  </si>
+  <si>
+    <t>134334(超過五年）</t>
+  </si>
+  <si>
+    <t>1983822(超過五年）</t>
+  </si>
+  <si>
+    <t>36480(超過五年）</t>
+  </si>
+  <si>
+    <t>1676940(超過五年）</t>
+  </si>
+  <si>
+    <t>654360(超過五年）</t>
+  </si>
+  <si>
+    <t>1391940(超過五年）</t>
+  </si>
+  <si>
+    <t>282150(超過五年）</t>
+  </si>
+  <si>
+    <t>225720(超過五年）</t>
+  </si>
+  <si>
+    <t>906300(超過</t>
+  </si>
+  <si>
+    <t>9480251(超過五年）</t>
+  </si>
+  <si>
+    <t>417240(超過五年）</t>
+  </si>
+  <si>
+    <t>738467(超過五年）</t>
+  </si>
+  <si>
+    <t>22360000(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-18</t>
+  </si>
+  <si>
+    <t>tmpfef21</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -39,205 +279,13 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市北投區桃源段五小段 0439-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區桃源段五小段 0440-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區桃源段五小段 0444-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區桃源段五小段 0509-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區桃源段五小段 0510-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區桃源段五小段 0515-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區桃源段五小段 0523-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區桃源段五小段 0527-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區豐年段三小段 0614-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區豐年段三小段 0642-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區豐年段三小段 0653-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區豐年段三小段 0654-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區豐年段四小段 0368-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區豐年段四小段 0369-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區豐年段四小段</t>
-  </si>
-  <si>
-    <t>臺北市北投區豐年段四小段 0377-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區豐年段四小段 0378-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區豐年段四小段 0379-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市中正區臨沂段二小段 0392-0000 地號</t>
-  </si>
-  <si>
-    <t>12分之1</t>
-  </si>
-  <si>
-    <t>4320分之 94</t>
-  </si>
-  <si>
-    <t>30000分之 180</t>
-  </si>
-  <si>
-    <t>15分之1</t>
-  </si>
-  <si>
-    <t>216分之11</t>
-  </si>
-  <si>
-    <t>10000分之 354</t>
-  </si>
-  <si>
-    <t>高志鵬</t>
-  </si>
-  <si>
-    <t>局志鹏</t>
-  </si>
-  <si>
-    <t>局志騰</t>
-  </si>
-  <si>
-    <t>高志鵰</t>
-  </si>
-  <si>
-    <t>局志轉</t>
-  </si>
-  <si>
-    <t>局志鹏.</t>
-  </si>
-  <si>
-    <t>82年06月 .16曰</t>
-  </si>
-  <si>
-    <t>82年06月 16日</t>
-  </si>
-  <si>
-    <t>82年06月 16曰</t>
-  </si>
-  <si>
-    <t>82年02月 25日</t>
-  </si>
-  <si>
-    <t>92年07月 21曰</t>
-  </si>
-  <si>
-    <t>92年07月 21日 ’</t>
-  </si>
-  <si>
-    <t>92年07月 21日</t>
-  </si>
-  <si>
-    <t>92年07月</t>
-  </si>
-  <si>
-    <t>94年02月 17曰</t>
-  </si>
-  <si>
-    <t>分割繼承</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>558,507(超過 五年）</t>
-  </si>
-  <si>
-    <t>2,180’694(超 過五年）</t>
-  </si>
-  <si>
-    <t>246,890(超過 五年）</t>
-  </si>
-  <si>
-    <t>178，346(超過 五年）</t>
-  </si>
-  <si>
-    <t>170,795(超過 五年）</t>
-  </si>
-  <si>
-    <t>1，053，768(超 過五年）</t>
-  </si>
-  <si>
-    <t>134,334(超過 五年）</t>
-  </si>
-  <si>
-    <t>1,983,822(超 過五年）</t>
-  </si>
-  <si>
-    <t>36,480 (超過五 年）</t>
-  </si>
-  <si>
-    <t>1,676,940(超 過五年）</t>
-  </si>
-  <si>
-    <t>654，360(超過 五年）</t>
-  </si>
-  <si>
-    <t>1,391，940(超 過五年）</t>
-  </si>
-  <si>
-    <t>282,150(超過 五年）</t>
-  </si>
-  <si>
-    <t>225,720(超過 五年）</t>
-  </si>
-  <si>
-    <t>906,300(超過</t>
-  </si>
-  <si>
-    <t>9，480,251(超 過五年）</t>
-  </si>
-  <si>
-    <t>417,240(超過 五年）</t>
-  </si>
-  <si>
-    <t>738,467 (超過 五年）</t>
-  </si>
-  <si>
-    <t>22,360，000(超 過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市北投區桃源段五小段 50184-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區臨沂段二小段 02095-000 建號</t>
-  </si>
-  <si>
-    <t>*北市中正區臨沂段二小段 02073-000 建號</t>
+    <t>臺北市北投區桃源段五小段50184000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區臨沂段二小段02095000建號</t>
+  </si>
+  <si>
+    <t>*北市中正區臨沂段二小段02073000建號</t>
   </si>
   <si>
     <t>全部</t>
@@ -246,22 +294,16 @@
     <t>71分之1</t>
   </si>
   <si>
-    <t>73年02月 07日</t>
-  </si>
-  <si>
-    <t>94年02月 17-日</t>
-  </si>
-  <si>
-    <t>第一次登 記</t>
-  </si>
-  <si>
-    <t>(•超過五年）</t>
-  </si>
-  <si>
-    <t>22,360,000(超 過五年）</t>
-  </si>
-  <si>
-    <t>22，360，000(超 過五年）</t>
+    <t>73年02月07日</t>
+  </si>
+  <si>
+    <t>94年02月17日</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -647,13 +689,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,499 +717,919 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>269.16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="2">
+        <v>923</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>403.21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="2">
+        <v>923</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>45.65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="2">
+        <v>923</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>85.95</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="2">
+        <v>923</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>31.58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="2">
+        <v>923</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>507.84</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="2">
+        <v>923</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>112.59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="2">
+        <v>923</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>4473.63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="2">
+        <v>923</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="2">
+        <v>923</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>1471</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="2">
+        <v>923</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>574</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="2">
+        <v>923</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>1221</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="2">
+        <v>923</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>324</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="2">
+        <v>923</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O14" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>198</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="2">
+        <v>923</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O15" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>795</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="2">
+        <v>923</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O16" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
         <v>8316.01</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="2">
+        <v>923</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O17" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
         <v>366</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="2">
+        <v>923</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O18" s="2">
         <v>32</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2">
         <v>848</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="2">
+        <v>923</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O19" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2">
         <v>536</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="2">
+        <v>923</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O20" s="2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1185,25 +1647,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1211,25 +1673,25 @@
         <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2">
         <v>78.25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1237,25 +1699,25 @@
         <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2">
         <v>137</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1263,25 +1725,25 @@
         <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2">
         <v>7.32</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1299,13 +1761,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1313,13 +1775,13 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1327,13 +1789,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1341,13 +1803,13 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1355,13 +1817,13 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/高志鵬_2011-11-18_財產申報表_tmpfef21.xlsx
+++ b/legislator/property/output/normal/高志鵬_2011-11-18_財產申報表_tmpfef21.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="94">
   <si>
     <t>name</t>
   </si>
@@ -60,7 +60,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市北投區桃源段五小段04390000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺北市北投區桃源段五小段04400000地號</t>
@@ -153,9 +156,6 @@
     <t>局志鹏.</t>
   </si>
   <si>
-    <t>82年06月.16曰</t>
-  </si>
-  <si>
     <t>82年06月16日</t>
   </si>
   <si>
@@ -189,9 +189,6 @@
     <t>買賣</t>
   </si>
   <si>
-    <t>558507(超過五年）</t>
-  </si>
-  <si>
     <t>2180694(超過五年）</t>
   </si>
   <si>
@@ -258,70 +255,40 @@
     <t>tmpfef21</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>臺北市北投區桃源段五小段50184000建號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>73年02月07日</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
     <t>臺北市中正區臨沂段二小段02095000建號</t>
   </si>
   <si>
     <t>*北市中正區臨沂段二小段02073000建號</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>71分之1</t>
   </si>
   <si>
-    <t>73年02月07日</t>
-  </si>
-  <si>
     <t>94年02月17日</t>
   </si>
   <si>
-    <t>第一次登記</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>優質理財變額萬能壽險乙型</t>
+  </si>
+  <si>
     <t>三商美邦人壽</t>
-  </si>
-  <si>
-    <t>優質理財變額萬能壽險乙型</t>
   </si>
   <si>
     <t>安泰雙星報喜還本終身壽險</t>
@@ -689,13 +656,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -738,25 +705,31 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>269.16</v>
+        <v>403.21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>53</v>
@@ -765,42 +738,48 @@
         <v>57</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M2" s="2">
         <v>923</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>33.6008333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>403.21</v>
+        <v>45.65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>46</v>
@@ -812,45 +791,51 @@
         <v>58</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M3" s="2">
         <v>923</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>3.80416666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>45.65</v>
+        <v>85.95</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>53</v>
@@ -859,45 +844,51 @@
         <v>59</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M4" s="2">
         <v>923</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>7.1625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>85.95</v>
+        <v>31.58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>53</v>
@@ -906,42 +897,48 @@
         <v>60</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M5" s="2">
         <v>923</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>2.63166666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>31.58</v>
+        <v>507.84</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>46</v>
@@ -953,186 +950,210 @@
         <v>61</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M6" s="2">
         <v>923</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>42.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>507.84</v>
+        <v>112.59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>62</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="L7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="2">
         <v>923</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.0217592592592593</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>2.449875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>112.59</v>
+        <v>4473.63</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>63</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="L8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M8" s="2">
         <v>923</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.006</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>26.84178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>4473.63</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>64</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M9" s="2">
         <v>923</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>2.13333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>32</v>
+        <v>1471</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>55</v>
@@ -1141,45 +1162,51 @@
         <v>65</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="L10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M10" s="2">
         <v>923</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>98.0666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>1471</v>
+        <v>574</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>55</v>
@@ -1188,42 +1215,48 @@
         <v>66</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="L11" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="2">
         <v>923</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>38.2666666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>574</v>
+        <v>1221</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>49</v>
@@ -1235,42 +1268,48 @@
         <v>67</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="L12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M12" s="2">
         <v>923</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>25</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>81.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>1221</v>
+        <v>324</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>49</v>
@@ -1282,45 +1321,51 @@
         <v>68</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="L13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M13" s="2">
         <v>923</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O13" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.0509259259259259</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>324</v>
+        <v>198</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>55</v>
@@ -1329,45 +1374,51 @@
         <v>69</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="L14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M14" s="2">
         <v>923</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O14" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>27</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>198</v>
+        <v>795</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>55</v>
@@ -1376,45 +1427,51 @@
         <v>70</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="L15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="2">
         <v>923</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O15" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>795</v>
+        <v>8316.01</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>55</v>
@@ -1423,45 +1480,51 @@
         <v>71</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="L16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M16" s="2">
         <v>923</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O16" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>31</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>554.400666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C17" s="2">
-        <v>8316.01</v>
+        <v>366</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>55</v>
@@ -1470,42 +1533,48 @@
         <v>72</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="L17" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M17" s="2">
         <v>923</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O17" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>32</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C18" s="2">
-        <v>366</v>
+        <v>848</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>50</v>
@@ -1517,119 +1586,84 @@
         <v>73</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="L18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M18" s="2">
         <v>923</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O18" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>33</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.0509259259259259</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>43.1851851851852</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C19" s="2">
-        <v>848</v>
+        <v>536</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="L19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="2">
         <v>923</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O19" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="1">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="2">
-        <v>536</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" s="2">
-        <v>923</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O20" s="2">
-        <v>34</v>
+      <c r="P19" s="2">
+        <v>0.0354</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>18.9744</v>
       </c>
     </row>
   </sheetData>
@@ -1639,7 +1673,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1647,103 +1681,77 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1">
+        <v>78.25</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2">
-        <v>78.25</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2">
-        <v>137</v>
+        <v>7.32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>41</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="2">
-        <v>7.32</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1753,7 +1761,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1761,38 +1769,38 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
+        <v>92</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
+        <v>93</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>40</v>
@@ -1800,30 +1808,16 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
+        <v>94</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>94</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/高志鵬_2011-11-18_財產申報表_tmpfef21.xlsx
+++ b/legislator/property/output/normal/高志鵬_2011-11-18_財產申報表_tmpfef21.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="97">
   <si>
     <t>name</t>
   </si>
@@ -66,6 +66,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市北投區桃源段五小段04390000地號</t>
+  </si>
+  <si>
     <t>臺北市北投區桃源段五小段04400000地號</t>
   </si>
   <si>
@@ -156,6 +159,9 @@
     <t>局志鹏.</t>
   </si>
   <si>
+    <t>82年06月.16曰</t>
+  </si>
+  <si>
     <t>82年06月16日</t>
   </si>
   <si>
@@ -189,6 +195,9 @@
     <t>買賣</t>
   </si>
   <si>
+    <t>558507(超過五年）</t>
+  </si>
+  <si>
     <t>2180694(超過五年）</t>
   </si>
   <si>
@@ -258,28 +267,28 @@
     <t>臺北市北投區桃源段五小段50184000建號</t>
   </si>
   <si>
+    <t>臺北市中正區臨沂段二小段02095000建號</t>
+  </si>
+  <si>
+    <t>*北市中正區臨沂段二小段02073000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
+    <t>71分之1</t>
+  </si>
+  <si>
     <t>73年02月07日</t>
   </si>
   <si>
+    <t>94年02月17日</t>
+  </si>
+  <si>
     <t>第一次登記</t>
   </si>
   <si>
     <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>臺北市中正區臨沂段二小段02095000建號</t>
-  </si>
-  <si>
-    <t>*北市中正區臨沂段二小段02073000建號</t>
-  </si>
-  <si>
-    <t>71分之1</t>
-  </si>
-  <si>
-    <t>94年02月17日</t>
   </si>
   <si>
     <t>富邦人壽</t>
@@ -656,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -714,955 +723,1008 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>403.21</v>
+        <v>269.16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M2" s="2">
         <v>923</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>0.0833333333333333</v>
       </c>
       <c r="Q2" s="2">
-        <v>33.6008333333333</v>
+        <v>22.43</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>45.65</v>
+        <v>403.21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M3" s="2">
         <v>923</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>0.0833333333333333</v>
       </c>
       <c r="Q3" s="2">
-        <v>3.80416666666667</v>
+        <v>33.6008333333333</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>85.95</v>
+        <v>45.65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M4" s="2">
         <v>923</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="2">
-        <v>7.1625</v>
+        <v>3.80416666666667</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>31.58</v>
+        <v>85.95</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M5" s="2">
         <v>923</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
         <v>0.0833333333333333</v>
       </c>
       <c r="Q5" s="2">
-        <v>2.63166666666667</v>
+        <v>7.1625</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>507.84</v>
+        <v>31.58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M6" s="2">
         <v>923</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>0.0833333333333333</v>
       </c>
       <c r="Q6" s="2">
-        <v>42.32</v>
+        <v>2.63166666666667</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>112.59</v>
+        <v>507.84</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M7" s="2">
         <v>923</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
-        <v>0.0217592592592593</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q7" s="2">
-        <v>2.449875</v>
+        <v>42.32</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>4473.63</v>
+        <v>112.59</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M8" s="2">
         <v>923</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
-        <v>0.006</v>
+        <v>0.0217592592592593</v>
       </c>
       <c r="Q8" s="2">
-        <v>26.84178</v>
+        <v>2.449875</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>32</v>
+        <v>4473.63</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M9" s="2">
         <v>923</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
-        <v>0.0666666666666667</v>
+        <v>0.006</v>
       </c>
       <c r="Q9" s="2">
-        <v>2.13333333333333</v>
+        <v>26.84178</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>1471</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M10" s="2">
         <v>923</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
         <v>0.0666666666666667</v>
       </c>
       <c r="Q10" s="2">
-        <v>98.0666666666667</v>
+        <v>2.13333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>574</v>
+        <v>1471</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M11" s="2">
         <v>923</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
         <v>0.0666666666666667</v>
       </c>
       <c r="Q11" s="2">
-        <v>38.2666666666667</v>
+        <v>98.0666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>1221</v>
+        <v>574</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M12" s="2">
         <v>923</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
         <v>0.0666666666666667</v>
       </c>
       <c r="Q12" s="2">
-        <v>81.4</v>
+        <v>38.2666666666667</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>324</v>
+        <v>1221</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M13" s="2">
         <v>923</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O13" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="2">
-        <v>0.0509259259259259</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q13" s="2">
-        <v>16.5</v>
+        <v>81.4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>198</v>
+        <v>324</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M14" s="2">
         <v>923</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O14" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P14" s="2">
-        <v>0.0666666666666667</v>
+        <v>0.0509259259259259</v>
       </c>
       <c r="Q14" s="2">
-        <v>13.2</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>795</v>
+        <v>198</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M15" s="2">
         <v>923</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O15" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P15" s="2">
         <v>0.0666666666666667</v>
       </c>
       <c r="Q15" s="2">
-        <v>53</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>8316.01</v>
+        <v>795</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M16" s="2">
         <v>923</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O16" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P16" s="2">
         <v>0.0666666666666667</v>
       </c>
       <c r="Q16" s="2">
-        <v>554.400666666667</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>366</v>
+        <v>8316.01</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M17" s="2">
         <v>923</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O17" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P17" s="2">
         <v>0.0666666666666667</v>
       </c>
       <c r="Q17" s="2">
-        <v>24.4</v>
+        <v>554.400666666667</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>848</v>
+        <v>366</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M18" s="2">
         <v>923</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O18" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P18" s="2">
-        <v>0.0509259259259259</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q18" s="2">
-        <v>43.1851851851852</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>536</v>
+        <v>848</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="2">
+        <v>923</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O19" s="2">
+        <v>33</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.0509259259259259</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>43.1851851851852</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="2">
+        <v>536</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" s="2">
-        <v>923</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O19" s="2">
+      <c r="I20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="2">
+        <v>923</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O20" s="2">
         <v>34</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P20" s="2">
         <v>0.0354</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q20" s="2">
         <v>18.9744</v>
       </c>
     </row>
@@ -1673,85 +1735,219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2">
         <v>78.25</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="2">
+        <v>923</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="2">
+        <v>39</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>78.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="C3" s="2">
+        <v>137</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="2">
+        <v>923</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" s="2">
         <v>40</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="2">
-        <v>137</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>41</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="C4" s="2">
         <v>7.32</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>74</v>
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="2">
+        <v>923</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4" s="2">
+        <v>41</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0140845070422535</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.103098591549296</v>
       </c>
     </row>
   </sheetData>
@@ -1761,7 +1957,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1769,55 +1965,69 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
+        <v>91</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
+        <v>93</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
         <v>94</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>40</v>
+      <c r="C5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/高志鵬_2011-11-18_財產申報表_tmpfef21.xlsx
+++ b/legislator/property/output/normal/高志鵬_2011-11-18_財產申報表_tmpfef21.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="98">
   <si>
     <t>name</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>富邦人壽</t>
@@ -1817,7 +1820,7 @@
         <v>90</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>79</v>
@@ -1870,7 +1873,7 @@
         <v>77</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>79</v>
@@ -1923,7 +1926,7 @@
         <v>77</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>79</v>
@@ -1965,10 +1968,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>42</v>
@@ -1979,10 +1982,10 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>42</v>
@@ -1993,10 +1996,10 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>42</v>
@@ -2007,10 +2010,10 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>41</v>
@@ -2021,10 +2024,10 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>41</v>

--- a/legislator/property/output/normal/高志鵬_2011-11-18_財產申報表_tmpfef21.xlsx
+++ b/legislator/property/output/normal/高志鵬_2011-11-18_財產申報表_tmpfef21.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="100">
   <si>
     <t>name</t>
   </si>
@@ -294,15 +294,18 @@
     <t>building</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>三商美邦人壽</t>
+  </si>
+  <si>
     <t>優質理財變額萬能壽險乙型</t>
   </si>
   <si>
-    <t>三商美邦人壽</t>
-  </si>
-  <si>
     <t>安泰雙星報喜還本終身壽險</t>
   </si>
   <si>
@@ -310,6 +313,9 @@
   </si>
   <si>
     <t>美年發儲蓄型保單</t>
+  </si>
+  <si>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -1960,66 +1966,150 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2">
+        <v>923</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2">
+        <v>923</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="2">
+        <v>923</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>94</v>
       </c>
@@ -2027,10 +2117,31 @@
         <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="2">
+        <v>923</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="2">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/高志鵬_2011-11-18_財產申報表_tmpfef21.xlsx
+++ b/legislator/property/output/normal/高志鵬_2011-11-18_財產申報表_tmpfef21.xlsx
@@ -10,13 +10,14 @@
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="保險" sheetId="3" r:id="rId3"/>
+    <sheet name="債務" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="102">
   <si>
     <t>name</t>
   </si>
@@ -108,7 +109,7 @@
     <t>臺北市北投區豐年段四小段03690000地號</t>
   </si>
   <si>
-    <t>臺北市北投區豐年段四小段</t>
+    <t>臺北市北投區豐年段四小段03700000地號</t>
   </si>
   <si>
     <t>臺北市北投區豐年段四小段03770000地號</t>
@@ -144,21 +145,9 @@
     <t>高志鵬</t>
   </si>
   <si>
-    <t>局志鹏</t>
-  </si>
-  <si>
-    <t>局志騰</t>
-  </si>
-  <si>
     <t>高志鵰</t>
   </si>
   <si>
-    <t>局志轉</t>
-  </si>
-  <si>
-    <t>局志鹏.</t>
-  </si>
-  <si>
     <t>82年06月.16曰</t>
   </si>
   <si>
@@ -177,9 +166,6 @@
     <t>92年07月21日</t>
   </si>
   <si>
-    <t>92年07月</t>
-  </si>
-  <si>
     <t>94年02月17曰</t>
   </si>
   <si>
@@ -237,7 +223,7 @@
     <t>225720(超過五年）</t>
   </si>
   <si>
-    <t>906300(超過</t>
+    <t>906300(超過五年）</t>
   </si>
   <si>
     <t>9480251(超過五年）</t>
@@ -316,6 +302,27 @@
   </si>
   <si>
     <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
+    <t>融資</t>
+  </si>
+  <si>
+    <t>中國信託銀行臺北市信義區松壽路</t>
+  </si>
+  <si>
+    <t>99年04月22日</t>
+  </si>
+  <si>
+    <t>房屋貸款</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -747,22 +754,22 @@
         <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>41</v>
@@ -771,7 +778,7 @@
         <v>923</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O2" s="2">
         <v>14</v>
@@ -800,22 +807,22 @@
         <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>41</v>
@@ -824,7 +831,7 @@
         <v>923</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O3" s="2">
         <v>15</v>
@@ -853,22 +860,22 @@
         <v>41</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>41</v>
@@ -877,7 +884,7 @@
         <v>923</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O4" s="2">
         <v>16</v>
@@ -903,25 +910,25 @@
         <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>41</v>
@@ -930,7 +937,7 @@
         <v>923</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O5" s="2">
         <v>17</v>
@@ -956,25 +963,25 @@
         <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>41</v>
@@ -983,7 +990,7 @@
         <v>923</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O6" s="2">
         <v>18</v>
@@ -1012,22 +1019,22 @@
         <v>41</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>41</v>
@@ -1036,7 +1043,7 @@
         <v>923</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O7" s="2">
         <v>19</v>
@@ -1065,22 +1072,22 @@
         <v>41</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>41</v>
@@ -1089,7 +1096,7 @@
         <v>923</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O8" s="2">
         <v>20</v>
@@ -1118,22 +1125,22 @@
         <v>41</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>41</v>
@@ -1142,7 +1149,7 @@
         <v>923</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O9" s="2">
         <v>21</v>
@@ -1171,22 +1178,22 @@
         <v>41</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>41</v>
@@ -1195,7 +1202,7 @@
         <v>923</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O10" s="2">
         <v>22</v>
@@ -1221,25 +1228,25 @@
         <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="H11" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>41</v>
@@ -1248,7 +1255,7 @@
         <v>923</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O11" s="2">
         <v>23</v>
@@ -1274,25 +1281,25 @@
         <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>41</v>
@@ -1301,7 +1308,7 @@
         <v>923</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O12" s="2">
         <v>24</v>
@@ -1330,22 +1337,22 @@
         <v>41</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>41</v>
@@ -1354,7 +1361,7 @@
         <v>923</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O13" s="2">
         <v>25</v>
@@ -1383,22 +1390,22 @@
         <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>41</v>
@@ -1407,7 +1414,7 @@
         <v>923</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O14" s="2">
         <v>26</v>
@@ -1436,22 +1443,22 @@
         <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="H15" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>41</v>
@@ -1460,7 +1467,7 @@
         <v>923</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O15" s="2">
         <v>27</v>
@@ -1489,22 +1496,22 @@
         <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="J16" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>41</v>
@@ -1513,7 +1520,7 @@
         <v>923</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O16" s="2">
         <v>28</v>
@@ -1542,22 +1549,22 @@
         <v>41</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>41</v>
@@ -1566,7 +1573,7 @@
         <v>923</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O17" s="2">
         <v>31</v>
@@ -1595,22 +1602,22 @@
         <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="H18" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>41</v>
@@ -1619,7 +1626,7 @@
         <v>923</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O18" s="2">
         <v>32</v>
@@ -1645,25 +1652,25 @@
         <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="H19" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>41</v>
@@ -1672,7 +1679,7 @@
         <v>923</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O19" s="2">
         <v>33</v>
@@ -1701,22 +1708,22 @@
         <v>41</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>41</v>
@@ -1725,7 +1732,7 @@
         <v>923</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O20" s="2">
         <v>34</v>
@@ -1805,34 +1812,34 @@
         <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2">
         <v>78.25</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>41</v>
@@ -1841,7 +1848,7 @@
         <v>923</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O2" s="2">
         <v>39</v>
@@ -1858,34 +1865,34 @@
         <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2">
         <v>137</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>41</v>
@@ -1894,7 +1901,7 @@
         <v>923</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O3" s="2">
         <v>40</v>
@@ -1911,34 +1918,34 @@
         <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2">
         <v>7.32</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>41</v>
@@ -1947,7 +1954,7 @@
         <v>923</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O4" s="2">
         <v>41</v>
@@ -1974,7 +1981,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -2009,22 +2016,22 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>41</v>
@@ -2033,7 +2040,7 @@
         <v>923</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K2" s="2">
         <v>91</v>
@@ -2044,22 +2051,22 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>41</v>
@@ -2068,7 +2075,7 @@
         <v>923</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K3" s="2">
         <v>92</v>
@@ -2079,22 +2086,22 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>41</v>
@@ -2103,7 +2110,7 @@
         <v>923</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K4" s="2">
         <v>93</v>
@@ -2114,22 +2121,22 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>41</v>
@@ -2138,10 +2145,108 @@
         <v>923</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K5" s="2">
         <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>102</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="2">
+        <v>39139897</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="2">
+        <v>923</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="2">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
